--- a/Inputs/Planeación - Armonización de Encuestas de Hogares.xlsx
+++ b/Inputs/Planeación - Armonización de Encuestas de Hogares.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26327"/>
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://idbg.sharepoint.com/sites/DataGovernance-SCL/Shared Documents/General/D. Collections/D.1 - Household Socio-Economic Surveys/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://idbg-my.sharepoint.com/personal/mariarey_iadb_org/Documents/Documents/GitHub/calculo_indicadores_R/Inputs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2771" documentId="13_ncr:1_{8AF7F83F-6557-4E4A-89D0-13E0BF5AF53F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FA29819F-7CA7-47E3-BF35-4E3B47B8C0C7}"/>
+  <xr:revisionPtr revIDLastSave="2776" documentId="13_ncr:1_{8AF7F83F-6557-4E4A-89D0-13E0BF5AF53F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{128F8298-237A-4DCA-BB16-9CADD94D2DFF}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25590" windowHeight="21000" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21240" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Encuestas Armonizadas" sheetId="2" state="hidden" r:id="rId1"/>
@@ -3564,6 +3564,18 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="7" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3572,18 +3584,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -5686,59 +5686,59 @@
       <selection pane="bottomRight" activeCell="AR42" sqref="AR42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="11.25" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="6" style="52" customWidth="1"/>
-    <col min="2" max="2" width="9.33203125" style="55" customWidth="1"/>
-    <col min="3" max="3" width="17.5546875" style="55" customWidth="1"/>
+    <col min="2" max="2" width="9.28515625" style="55" customWidth="1"/>
+    <col min="3" max="3" width="17.5703125" style="55" customWidth="1"/>
     <col min="4" max="4" width="11" style="55" bestFit="1" customWidth="1"/>
-    <col min="5" max="39" width="4.33203125" style="52" customWidth="1"/>
-    <col min="40" max="40" width="12.33203125" style="52" customWidth="1"/>
-    <col min="41" max="41" width="17.6640625" style="52" customWidth="1"/>
-    <col min="42" max="42" width="14.44140625" style="52" customWidth="1"/>
+    <col min="5" max="39" width="4.28515625" style="52" customWidth="1"/>
+    <col min="40" max="40" width="12.28515625" style="52" customWidth="1"/>
+    <col min="41" max="41" width="17.7109375" style="52" customWidth="1"/>
+    <col min="42" max="42" width="14.42578125" style="52" customWidth="1"/>
     <col min="43" max="45" width="9" style="53"/>
     <col min="46" max="16384" width="9" style="55"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:75" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B1" s="243" t="s">
+    <row r="1" spans="1:75" ht="15" x14ac:dyDescent="0.2">
+      <c r="B1" s="247" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="243"/>
-      <c r="D1" s="243"/>
-      <c r="E1" s="243"/>
-      <c r="F1" s="243"/>
-      <c r="G1" s="243"/>
-      <c r="H1" s="243"/>
-      <c r="I1" s="243"/>
-      <c r="J1" s="243"/>
-      <c r="K1" s="243"/>
-      <c r="L1" s="243"/>
-      <c r="M1" s="243"/>
-      <c r="N1" s="243"/>
-      <c r="O1" s="243"/>
-      <c r="P1" s="243"/>
-      <c r="Q1" s="243"/>
-      <c r="R1" s="243"/>
-      <c r="S1" s="243"/>
-      <c r="T1" s="243"/>
-      <c r="U1" s="243"/>
-      <c r="V1" s="243"/>
-      <c r="W1" s="243"/>
-      <c r="X1" s="243"/>
-      <c r="Y1" s="243"/>
-      <c r="Z1" s="243"/>
-      <c r="AA1" s="243"/>
-      <c r="AB1" s="243"/>
-      <c r="AC1" s="243"/>
-      <c r="AD1" s="243"/>
-      <c r="AE1" s="243"/>
-      <c r="AF1" s="243"/>
-      <c r="AG1" s="243"/>
-      <c r="AH1" s="243"/>
-      <c r="AI1" s="243"/>
-      <c r="AJ1" s="243"/>
-      <c r="AK1" s="243"/>
+      <c r="C1" s="247"/>
+      <c r="D1" s="247"/>
+      <c r="E1" s="247"/>
+      <c r="F1" s="247"/>
+      <c r="G1" s="247"/>
+      <c r="H1" s="247"/>
+      <c r="I1" s="247"/>
+      <c r="J1" s="247"/>
+      <c r="K1" s="247"/>
+      <c r="L1" s="247"/>
+      <c r="M1" s="247"/>
+      <c r="N1" s="247"/>
+      <c r="O1" s="247"/>
+      <c r="P1" s="247"/>
+      <c r="Q1" s="247"/>
+      <c r="R1" s="247"/>
+      <c r="S1" s="247"/>
+      <c r="T1" s="247"/>
+      <c r="U1" s="247"/>
+      <c r="V1" s="247"/>
+      <c r="W1" s="247"/>
+      <c r="X1" s="247"/>
+      <c r="Y1" s="247"/>
+      <c r="Z1" s="247"/>
+      <c r="AA1" s="247"/>
+      <c r="AB1" s="247"/>
+      <c r="AC1" s="247"/>
+      <c r="AD1" s="247"/>
+      <c r="AE1" s="247"/>
+      <c r="AF1" s="247"/>
+      <c r="AG1" s="247"/>
+      <c r="AH1" s="247"/>
+      <c r="AI1" s="247"/>
+      <c r="AJ1" s="247"/>
+      <c r="AK1" s="247"/>
       <c r="AL1" s="51"/>
       <c r="AM1" s="93"/>
       <c r="AN1" s="51"/>
@@ -5775,7 +5775,7 @@
       <c r="BV1" s="54"/>
       <c r="BW1" s="54"/>
     </row>
-    <row r="2" spans="1:75" ht="55.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:75" ht="55.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="157" t="s">
         <v>1</v>
       </c>
@@ -5903,11 +5903,11 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:75" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:75" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="157" t="b">
         <v>1</v>
       </c>
-      <c r="B3" s="245" t="s">
+      <c r="B3" s="242" t="s">
         <v>8</v>
       </c>
       <c r="C3" s="57" t="s">
@@ -5999,9 +5999,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:75" ht="11.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:75" ht="11.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="157"/>
-      <c r="B4" s="246"/>
+      <c r="B4" s="243"/>
       <c r="C4" s="57" t="s">
         <v>14</v>
       </c>
@@ -6069,7 +6069,7 @@
       <c r="AO4" s="40"/>
       <c r="AP4" s="86"/>
     </row>
-    <row r="5" spans="1:75" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:75" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="157" t="b">
         <v>1</v>
       </c>
@@ -6151,7 +6151,7 @@
       </c>
       <c r="AP5" s="86"/>
     </row>
-    <row r="6" spans="1:75" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:75" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="157" t="b">
         <v>1</v>
       </c>
@@ -6233,11 +6233,11 @@
       </c>
       <c r="AP6" s="89"/>
     </row>
-    <row r="7" spans="1:75" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:75" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="157" t="b">
         <v>1</v>
       </c>
-      <c r="B7" s="247" t="s">
+      <c r="B7" s="245" t="s">
         <v>22</v>
       </c>
       <c r="C7" s="57" t="s">
@@ -6331,9 +6331,9 @@
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:75" ht="11.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:75" ht="11.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="157"/>
-      <c r="B8" s="247"/>
+      <c r="B8" s="245"/>
       <c r="C8" s="57" t="s">
         <v>26</v>
       </c>
@@ -6389,9 +6389,9 @@
       <c r="AO8" s="40"/>
       <c r="AP8" s="86"/>
     </row>
-    <row r="9" spans="1:75" ht="10.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:75" ht="10.9" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="157"/>
-      <c r="B9" s="247"/>
+      <c r="B9" s="245"/>
       <c r="C9" s="57" t="s">
         <v>27</v>
       </c>
@@ -6439,9 +6439,9 @@
       <c r="AO9" s="40"/>
       <c r="AP9" s="86"/>
     </row>
-    <row r="10" spans="1:75" ht="11.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:75" ht="11.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="157"/>
-      <c r="B10" s="247" t="s">
+      <c r="B10" s="245" t="s">
         <v>28</v>
       </c>
       <c r="C10" s="39" t="s">
@@ -6531,11 +6531,11 @@
       <c r="AO10" s="90"/>
       <c r="AP10" s="89"/>
     </row>
-    <row r="11" spans="1:75" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:75" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="157" t="b">
         <v>1</v>
       </c>
-      <c r="B11" s="247"/>
+      <c r="B11" s="245"/>
       <c r="C11" s="39" t="s">
         <v>30</v>
       </c>
@@ -6599,7 +6599,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="12" spans="1:75" ht="12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:75" ht="12" x14ac:dyDescent="0.2">
       <c r="A12" s="157" t="b">
         <v>1</v>
       </c>
@@ -6683,7 +6683,7 @@
       </c>
       <c r="AP12" s="89"/>
     </row>
-    <row r="13" spans="1:75" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:75" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="157" t="b">
         <v>1</v>
       </c>
@@ -6769,9 +6769,9 @@
         <v>37</v>
       </c>
     </row>
-    <row r="14" spans="1:75" ht="11.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:75" ht="11.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="157"/>
-      <c r="B14" s="245" t="s">
+      <c r="B14" s="242" t="s">
         <v>38</v>
       </c>
       <c r="C14" s="39" t="s">
@@ -6827,9 +6827,9 @@
       <c r="AO14" s="40"/>
       <c r="AP14" s="86"/>
     </row>
-    <row r="15" spans="1:75" ht="10.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:75" ht="10.9" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="157"/>
-      <c r="B15" s="248"/>
+      <c r="B15" s="244"/>
       <c r="C15" s="39" t="s">
         <v>39</v>
       </c>
@@ -6875,9 +6875,9 @@
       <c r="AO15" s="40"/>
       <c r="AP15" s="86"/>
     </row>
-    <row r="16" spans="1:75" ht="11.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:75" ht="11.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="157"/>
-      <c r="B16" s="248"/>
+      <c r="B16" s="244"/>
       <c r="C16" s="39" t="s">
         <v>40</v>
       </c>
@@ -6945,11 +6945,11 @@
       <c r="AO16" s="40"/>
       <c r="AP16" s="86"/>
     </row>
-    <row r="17" spans="1:42" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:42" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="157" t="b">
         <v>1</v>
       </c>
-      <c r="B17" s="246"/>
+      <c r="B17" s="243"/>
       <c r="C17" s="39" t="s">
         <v>41</v>
       </c>
@@ -7033,9 +7033,9 @@
         <v>31</v>
       </c>
     </row>
-    <row r="18" spans="1:42" ht="11.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:42" ht="11.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="157"/>
-      <c r="B18" s="245" t="s">
+      <c r="B18" s="242" t="s">
         <v>43</v>
       </c>
       <c r="C18" s="41" t="s">
@@ -7121,11 +7121,11 @@
       <c r="AO18" s="40"/>
       <c r="AP18" s="86"/>
     </row>
-    <row r="19" spans="1:42" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:42" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="157" t="b">
         <v>1</v>
       </c>
-      <c r="B19" s="246"/>
+      <c r="B19" s="243"/>
       <c r="C19" s="57" t="s">
         <v>45</v>
       </c>
@@ -7201,9 +7201,9 @@
         <v>47</v>
       </c>
     </row>
-    <row r="20" spans="1:42" ht="11.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:42" ht="11.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="157"/>
-      <c r="B20" s="245" t="s">
+      <c r="B20" s="242" t="s">
         <v>48</v>
       </c>
       <c r="C20" s="57" t="s">
@@ -7289,11 +7289,11 @@
       <c r="AO20" s="90"/>
       <c r="AP20" s="89"/>
     </row>
-    <row r="21" spans="1:42" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:42" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="157" t="b">
         <v>1</v>
       </c>
-      <c r="B21" s="246"/>
+      <c r="B21" s="243"/>
       <c r="C21" s="57" t="s">
         <v>50</v>
       </c>
@@ -7353,11 +7353,11 @@
         <v>52</v>
       </c>
     </row>
-    <row r="22" spans="1:42" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:42" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="157" t="b">
         <v>1</v>
       </c>
-      <c r="B22" s="247" t="s">
+      <c r="B22" s="245" t="s">
         <v>53</v>
       </c>
       <c r="C22" s="57" t="s">
@@ -7475,9 +7475,9 @@
         <v>56</v>
       </c>
     </row>
-    <row r="23" spans="1:42" ht="11.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:42" ht="11.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="157"/>
-      <c r="B23" s="247"/>
+      <c r="B23" s="245"/>
       <c r="C23" s="57" t="s">
         <v>57</v>
       </c>
@@ -7529,9 +7529,9 @@
       <c r="AO23" s="90"/>
       <c r="AP23" s="89"/>
     </row>
-    <row r="24" spans="1:42" ht="10.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:42" ht="10.9" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="157"/>
-      <c r="B24" s="247" t="s">
+      <c r="B24" s="245" t="s">
         <v>58</v>
       </c>
       <c r="C24" s="57" t="s">
@@ -7583,11 +7583,11 @@
       <c r="AO24" s="40"/>
       <c r="AP24" s="86"/>
     </row>
-    <row r="25" spans="1:42" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:42" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="157" t="b">
         <v>1</v>
       </c>
-      <c r="B25" s="247"/>
+      <c r="B25" s="245"/>
       <c r="C25" s="57" t="s">
         <v>60</v>
       </c>
@@ -7667,9 +7667,9 @@
         <v>47</v>
       </c>
     </row>
-    <row r="26" spans="1:42" ht="12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:42" ht="12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A26" s="157"/>
-      <c r="B26" s="247"/>
+      <c r="B26" s="245"/>
       <c r="C26" s="57" t="s">
         <v>62</v>
       </c>
@@ -7715,7 +7715,7 @@
       <c r="AO26" s="40"/>
       <c r="AP26" s="86"/>
     </row>
-    <row r="27" spans="1:42" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:42" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="157" t="b">
         <v>1</v>
       </c>
@@ -7835,11 +7835,11 @@
         <v>31</v>
       </c>
     </row>
-    <row r="28" spans="1:42" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:42" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="157" t="b">
         <v>1</v>
       </c>
-      <c r="B28" s="245" t="s">
+      <c r="B28" s="242" t="s">
         <v>65</v>
       </c>
       <c r="C28" s="57" t="s">
@@ -7941,9 +7941,9 @@
       </c>
       <c r="AP28" s="86"/>
     </row>
-    <row r="29" spans="1:42" ht="10.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:42" ht="10.9" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="157"/>
-      <c r="B29" s="246"/>
+      <c r="B29" s="243"/>
       <c r="C29" s="57" t="s">
         <v>67</v>
       </c>
@@ -8005,7 +8005,7 @@
       <c r="AO29" s="40"/>
       <c r="AP29" s="86"/>
     </row>
-    <row r="30" spans="1:42" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:42" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="157" t="b">
         <v>1</v>
       </c>
@@ -8095,9 +8095,9 @@
         <v>72</v>
       </c>
     </row>
-    <row r="31" spans="1:42" ht="11.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:42" ht="11.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="157"/>
-      <c r="B31" s="245" t="s">
+      <c r="B31" s="242" t="s">
         <v>73</v>
       </c>
       <c r="C31" s="57" t="s">
@@ -8149,11 +8149,11 @@
       <c r="AO31" s="40"/>
       <c r="AP31" s="86"/>
     </row>
-    <row r="32" spans="1:42" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:42" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="157" t="b">
         <v>1</v>
       </c>
-      <c r="B32" s="246"/>
+      <c r="B32" s="243"/>
       <c r="C32" s="57" t="s">
         <v>74</v>
       </c>
@@ -8217,9 +8217,9 @@
       </c>
       <c r="AP32" s="86"/>
     </row>
-    <row r="33" spans="1:42" ht="11.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:42" ht="11.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="157"/>
-      <c r="B33" s="245" t="s">
+      <c r="B33" s="242" t="s">
         <v>76</v>
       </c>
       <c r="C33" s="57" t="s">
@@ -8299,11 +8299,11 @@
       <c r="AO33" s="40"/>
       <c r="AP33" s="86"/>
     </row>
-    <row r="34" spans="1:42" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:42" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="157" t="b">
         <v>1</v>
       </c>
-      <c r="B34" s="246"/>
+      <c r="B34" s="243"/>
       <c r="C34" s="57" t="s">
         <v>44</v>
       </c>
@@ -8375,9 +8375,9 @@
         <v>31</v>
       </c>
     </row>
-    <row r="35" spans="1:42" ht="11.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:42" ht="11.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="157"/>
-      <c r="B35" s="245" t="s">
+      <c r="B35" s="242" t="s">
         <v>79</v>
       </c>
       <c r="C35" s="57" t="s">
@@ -8439,9 +8439,9 @@
       </c>
       <c r="AP35" s="86"/>
     </row>
-    <row r="36" spans="1:42" ht="11.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:42" ht="11.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="157"/>
-      <c r="B36" s="248"/>
+      <c r="B36" s="244"/>
       <c r="C36" s="57" t="s">
         <v>26</v>
       </c>
@@ -8455,15 +8455,15 @@
       <c r="K36" s="90"/>
       <c r="L36" s="90"/>
       <c r="M36" s="90"/>
-      <c r="N36" s="244">
-        <v>1</v>
-      </c>
-      <c r="O36" s="244"/>
+      <c r="N36" s="248">
+        <v>1</v>
+      </c>
+      <c r="O36" s="248"/>
       <c r="P36" s="90"/>
-      <c r="Q36" s="244">
-        <v>1</v>
-      </c>
-      <c r="R36" s="244"/>
+      <c r="Q36" s="248">
+        <v>1</v>
+      </c>
+      <c r="R36" s="248"/>
       <c r="S36" s="90"/>
       <c r="T36" s="90"/>
       <c r="U36" s="90"/>
@@ -8491,9 +8491,9 @@
       </c>
       <c r="AP36" s="86"/>
     </row>
-    <row r="37" spans="1:42" ht="11.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:42" ht="11.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="157"/>
-      <c r="B37" s="248"/>
+      <c r="B37" s="244"/>
       <c r="C37" s="57" t="s">
         <v>82</v>
       </c>
@@ -8573,11 +8573,11 @@
       </c>
       <c r="AP37" s="89"/>
     </row>
-    <row r="38" spans="1:42" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:42" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="157" t="b">
         <v>1</v>
       </c>
-      <c r="B38" s="246"/>
+      <c r="B38" s="243"/>
       <c r="C38" s="57" t="s">
         <v>9</v>
       </c>
@@ -8637,11 +8637,11 @@
         <v>25</v>
       </c>
     </row>
-    <row r="39" spans="1:42" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:42" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="157" t="b">
         <v>1</v>
       </c>
-      <c r="B39" s="245" t="s">
+      <c r="B39" s="242" t="s">
         <v>83</v>
       </c>
       <c r="C39" s="57" t="s">
@@ -8745,9 +8745,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="40" spans="1:42" ht="11.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:42" ht="11.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="157"/>
-      <c r="B40" s="246"/>
+      <c r="B40" s="243"/>
       <c r="C40" s="57" t="s">
         <v>84</v>
       </c>
@@ -8801,7 +8801,7 @@
       </c>
       <c r="AP40" s="89"/>
     </row>
-    <row r="41" spans="1:42" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:42" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="157" t="b">
         <v>1</v>
       </c>
@@ -8913,7 +8913,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="42" spans="1:42" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:42" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="157" t="b">
         <v>1</v>
       </c>
@@ -9035,9 +9035,9 @@
         <v>31</v>
       </c>
     </row>
-    <row r="43" spans="1:42" ht="11.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:42" ht="11.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="157"/>
-      <c r="B43" s="245" t="s">
+      <c r="B43" s="242" t="s">
         <v>87</v>
       </c>
       <c r="C43" s="57" t="s">
@@ -9135,11 +9135,11 @@
       <c r="AO43" s="90"/>
       <c r="AP43" s="89"/>
     </row>
-    <row r="44" spans="1:42" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:42" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="157" t="b">
         <v>1</v>
       </c>
-      <c r="B44" s="246"/>
+      <c r="B44" s="243"/>
       <c r="C44" s="41" t="s">
         <v>59</v>
       </c>
@@ -9207,7 +9207,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="45" spans="1:42" ht="11.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:42" ht="11.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="157"/>
       <c r="B45" s="96" t="s">
         <v>88</v>
@@ -9253,7 +9253,7 @@
       <c r="AO45" s="40"/>
       <c r="AP45" s="86"/>
     </row>
-    <row r="46" spans="1:42" ht="11.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:42" ht="11.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="157"/>
       <c r="B46" s="96" t="s">
         <v>89</v>
@@ -9299,7 +9299,7 @@
       <c r="AO46" s="40"/>
       <c r="AP46" s="86"/>
     </row>
-    <row r="47" spans="1:42" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:42" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C47" s="55" t="s">
         <v>90</v>
       </c>
@@ -9445,7 +9445,7 @@
       </c>
       <c r="AP47" s="1"/>
     </row>
-    <row r="48" spans="1:42" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:42" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C48" s="55" t="s">
         <v>91</v>
       </c>
@@ -9590,7 +9590,7 @@
         <v>10.5</v>
       </c>
     </row>
-    <row r="49" spans="3:41" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:41" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="AE49" s="168" t="s">
         <v>92</v>
       </c>
@@ -9612,7 +9612,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="51" spans="3:41" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:41" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="AK51" s="161">
         <v>1</v>
       </c>
@@ -9620,7 +9620,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="52" spans="3:41" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="3:41" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="AK52" s="87">
         <v>1</v>
       </c>
@@ -9630,7 +9630,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="53" spans="3:41" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="3:41" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="AK53" s="92">
         <v>1</v>
       </c>
@@ -9640,7 +9640,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="54" spans="3:41" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="3:41" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="AK54" s="88">
         <v>1</v>
       </c>
@@ -9650,46 +9650,46 @@
         <v>96</v>
       </c>
     </row>
-    <row r="58" spans="3:41" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C58" s="242" t="s">
+    <row r="58" spans="3:41" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C58" s="246" t="s">
         <v>97</v>
       </c>
-      <c r="D58" s="242"/>
-      <c r="E58" s="242"/>
-      <c r="F58" s="242"/>
-      <c r="G58" s="242"/>
-      <c r="H58" s="242"/>
-      <c r="I58" s="242"/>
-      <c r="J58" s="242"/>
-      <c r="K58" s="242"/>
-      <c r="L58" s="242"/>
-      <c r="M58" s="242"/>
-      <c r="N58" s="242"/>
-      <c r="O58" s="242"/>
-      <c r="P58" s="242"/>
-      <c r="Q58" s="242"/>
-      <c r="R58" s="242"/>
-      <c r="S58" s="242"/>
-      <c r="T58" s="242"/>
-      <c r="U58" s="242"/>
-      <c r="V58" s="242"/>
-      <c r="W58" s="242"/>
-      <c r="X58" s="242"/>
-      <c r="Y58" s="242"/>
-      <c r="Z58" s="242"/>
-      <c r="AA58" s="242"/>
-      <c r="AB58" s="242"/>
-      <c r="AC58" s="242"/>
-      <c r="AD58" s="242"/>
-      <c r="AE58" s="242"/>
-      <c r="AF58" s="242"/>
-      <c r="AG58" s="242"/>
-      <c r="AH58" s="242"/>
-      <c r="AI58" s="242"/>
-      <c r="AJ58" s="242"/>
-      <c r="AK58" s="242"/>
-    </row>
-    <row r="59" spans="3:41" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D58" s="246"/>
+      <c r="E58" s="246"/>
+      <c r="F58" s="246"/>
+      <c r="G58" s="246"/>
+      <c r="H58" s="246"/>
+      <c r="I58" s="246"/>
+      <c r="J58" s="246"/>
+      <c r="K58" s="246"/>
+      <c r="L58" s="246"/>
+      <c r="M58" s="246"/>
+      <c r="N58" s="246"/>
+      <c r="O58" s="246"/>
+      <c r="P58" s="246"/>
+      <c r="Q58" s="246"/>
+      <c r="R58" s="246"/>
+      <c r="S58" s="246"/>
+      <c r="T58" s="246"/>
+      <c r="U58" s="246"/>
+      <c r="V58" s="246"/>
+      <c r="W58" s="246"/>
+      <c r="X58" s="246"/>
+      <c r="Y58" s="246"/>
+      <c r="Z58" s="246"/>
+      <c r="AA58" s="246"/>
+      <c r="AB58" s="246"/>
+      <c r="AC58" s="246"/>
+      <c r="AD58" s="246"/>
+      <c r="AE58" s="246"/>
+      <c r="AF58" s="246"/>
+      <c r="AG58" s="246"/>
+      <c r="AH58" s="246"/>
+      <c r="AI58" s="246"/>
+      <c r="AJ58" s="246"/>
+      <c r="AK58" s="246"/>
+    </row>
+    <row r="59" spans="3:41" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C59" s="159" t="s">
         <v>98</v>
       </c>
@@ -9728,7 +9728,7 @@
       <c r="AJ59" s="158"/>
       <c r="AK59" s="158"/>
     </row>
-    <row r="60" spans="3:41" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="3:41" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C60" s="159" t="s">
         <v>99</v>
       </c>
@@ -9767,7 +9767,7 @@
       <c r="AJ60" s="158"/>
       <c r="AK60" s="158"/>
     </row>
-    <row r="61" spans="3:41" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="3:41" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C61" s="159" t="s">
         <v>100</v>
       </c>
@@ -9808,9 +9808,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="B43:B44"/>
-    <mergeCell ref="C58:AK58"/>
     <mergeCell ref="B1:AK1"/>
     <mergeCell ref="Q36:R36"/>
     <mergeCell ref="B39:B40"/>
@@ -9826,6 +9823,9 @@
     <mergeCell ref="B7:B9"/>
     <mergeCell ref="B20:B21"/>
     <mergeCell ref="B35:B38"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="B43:B44"/>
+    <mergeCell ref="C58:AK58"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" r:id="rId1"/>
@@ -9836,21 +9836,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FC0F423-732A-4BB5-B708-202F80FAD9CB}">
   <dimension ref="A1:AN84"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="4" topLeftCell="K1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AM40" sqref="AM40"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane xSplit="4" topLeftCell="N1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="Z31" sqref="Z31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" outlineLevelCol="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="12" style="112" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.109375" style="112" bestFit="1" customWidth="1" outlineLevel="1"/>
-    <col min="6" max="38" width="8.109375" style="112" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="8.109375" style="112" customWidth="1"/>
+    <col min="4" max="4" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.140625" style="112" bestFit="1" customWidth="1" outlineLevel="1"/>
+    <col min="6" max="38" width="8.140625" style="112" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="8.140625" style="112" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40" ht="24" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:40" ht="36" x14ac:dyDescent="0.25">
       <c r="A1" s="199" t="s">
         <v>2</v>
       </c>
@@ -9972,7 +9972,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="2" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A2" s="205" t="s">
         <v>8</v>
       </c>
@@ -10045,7 +10045,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A3" s="205" t="s">
         <v>8</v>
       </c>
@@ -10136,7 +10136,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A4" s="205" t="s">
         <v>8</v>
       </c>
@@ -10191,7 +10191,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A5" s="205" t="s">
         <v>15</v>
       </c>
@@ -10270,7 +10270,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A6" s="205" t="s">
         <v>20</v>
       </c>
@@ -10337,7 +10337,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A7" s="205" t="s">
         <v>20</v>
       </c>
@@ -10400,7 +10400,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A8" s="205" t="s">
         <v>20</v>
       </c>
@@ -10455,7 +10455,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A9" s="205" t="s">
         <v>22</v>
       </c>
@@ -10514,7 +10514,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A10" s="205" t="s">
         <v>22</v>
       </c>
@@ -10567,7 +10567,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A11" s="205" t="s">
         <v>22</v>
       </c>
@@ -10620,7 +10620,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A12" s="205" t="s">
         <v>22</v>
       </c>
@@ -10673,7 +10673,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A13" s="205" t="s">
         <v>22</v>
       </c>
@@ -10726,7 +10726,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A14" s="205" t="s">
         <v>22</v>
       </c>
@@ -10801,7 +10801,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A15" s="205" t="s">
         <v>22</v>
       </c>
@@ -10870,7 +10870,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A16" s="205" t="s">
         <v>28</v>
       </c>
@@ -10967,7 +10967,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="17" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A17" s="205" t="s">
         <v>28</v>
       </c>
@@ -11034,7 +11034,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A18" s="205" t="s">
         <v>32</v>
       </c>
@@ -11113,7 +11113,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A19" s="205" t="s">
         <v>32</v>
       </c>
@@ -11168,7 +11168,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A20" s="205" t="s">
         <v>34</v>
       </c>
@@ -11237,7 +11237,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="21" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A21" s="205" t="s">
         <v>34</v>
       </c>
@@ -11298,7 +11298,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A22" s="205" t="s">
         <v>38</v>
       </c>
@@ -11373,7 +11373,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="23" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A23" s="205" t="s">
         <v>38</v>
       </c>
@@ -11436,7 +11436,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A24" s="205" t="s">
         <v>38</v>
       </c>
@@ -11519,7 +11519,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="25" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A25" s="205" t="s">
         <v>38</v>
       </c>
@@ -11574,7 +11574,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A26" s="205" t="s">
         <v>43</v>
       </c>
@@ -11667,7 +11667,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="27" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A27" s="205" t="s">
         <v>43</v>
       </c>
@@ -11746,7 +11746,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="28" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A28" s="205" t="s">
         <v>48</v>
       </c>
@@ -11801,7 +11801,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A29" s="205" t="s">
         <v>48</v>
       </c>
@@ -11856,7 +11856,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A30" s="205" t="s">
         <v>48</v>
       </c>
@@ -11911,7 +11911,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A31" s="205" t="s">
         <v>48</v>
       </c>
@@ -11998,7 +11998,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="32" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A32" s="205" t="s">
         <v>48</v>
       </c>
@@ -12061,7 +12061,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="33" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A33" s="205" t="s">
         <v>53</v>
       </c>
@@ -12136,7 +12136,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="34" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A34" s="205" t="s">
         <v>53</v>
       </c>
@@ -12229,7 +12229,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="35" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A35" s="205" t="s">
         <v>58</v>
       </c>
@@ -12284,7 +12284,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A36" s="205" t="s">
         <v>58</v>
       </c>
@@ -12337,7 +12337,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A37" s="205" t="s">
         <v>58</v>
       </c>
@@ -12390,7 +12390,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A38" s="205" t="s">
         <v>58</v>
       </c>
@@ -12443,7 +12443,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A39" s="205" t="s">
         <v>58</v>
       </c>
@@ -12510,7 +12510,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="40" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A40" s="205" t="s">
         <v>58</v>
       </c>
@@ -12565,7 +12565,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="41" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A41" s="205" t="s">
         <v>58</v>
       </c>
@@ -12620,7 +12620,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="42" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A42" s="205" t="s">
         <v>63</v>
       </c>
@@ -12697,7 +12697,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="43" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A43" s="205" t="s">
         <v>63</v>
       </c>
@@ -12752,7 +12752,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="44" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A44" s="205" t="s">
         <v>63</v>
       </c>
@@ -12811,7 +12811,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="45" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A45" s="205" t="s">
         <v>63</v>
       </c>
@@ -12874,7 +12874,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="46" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A46" s="205" t="s">
         <v>63</v>
       </c>
@@ -12937,7 +12937,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="47" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A47" s="205" t="s">
         <v>154</v>
       </c>
@@ -12990,7 +12990,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A48" s="205" t="s">
         <v>65</v>
       </c>
@@ -13097,7 +13097,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="49" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A49" s="205" t="s">
         <v>68</v>
       </c>
@@ -13126,7 +13126,9 @@
       <c r="R49" s="90"/>
       <c r="S49" s="90"/>
       <c r="T49" s="90"/>
-      <c r="U49" s="90"/>
+      <c r="U49" s="90">
+        <v>1</v>
+      </c>
       <c r="V49" s="90"/>
       <c r="W49" s="90"/>
       <c r="X49" s="90"/>
@@ -13147,10 +13149,10 @@
       <c r="AM49" s="220"/>
       <c r="AN49" s="208">
         <f>SUM(Table1[[#This Row],[1986]:[2021]])</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" spans="1:40" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A50" s="205" t="s">
         <v>68</v>
       </c>
@@ -13203,7 +13205,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A51" s="205" t="s">
         <v>68</v>
       </c>
@@ -13254,7 +13256,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A52" s="205" t="s">
         <v>68</v>
       </c>
@@ -13289,9 +13291,7 @@
         <v>1</v>
       </c>
       <c r="T52" s="90"/>
-      <c r="U52" s="90">
-        <v>1</v>
-      </c>
+      <c r="U52" s="90"/>
       <c r="V52" s="90">
         <v>1</v>
       </c>
@@ -13330,10 +13330,10 @@
       <c r="AM52" s="207"/>
       <c r="AN52" s="206">
         <f>SUM(Table1[[#This Row],[1986]:[2021]])</f>
-        <v>14</v>
-      </c>
-    </row>
-    <row r="53" spans="1:40" x14ac:dyDescent="0.3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="53" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A53" s="205" t="s">
         <v>73</v>
       </c>
@@ -13394,7 +13394,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="54" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A54" s="205" t="s">
         <v>73</v>
       </c>
@@ -13451,7 +13451,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="55" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A55" s="205" t="s">
         <v>73</v>
       </c>
@@ -13510,7 +13510,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="56" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A56" s="205" t="s">
         <v>73</v>
       </c>
@@ -13565,7 +13565,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A57" s="205" t="s">
         <v>76</v>
       </c>
@@ -13652,7 +13652,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="58" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A58" s="205" t="s">
         <v>76</v>
       </c>
@@ -13725,7 +13725,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="59" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A59" s="205" t="s">
         <v>79</v>
       </c>
@@ -13778,7 +13778,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A60" s="205" t="s">
         <v>79</v>
       </c>
@@ -13831,7 +13831,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A61" s="205" t="s">
         <v>79</v>
       </c>
@@ -13884,7 +13884,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A62" s="205" t="s">
         <v>79</v>
       </c>
@@ -13937,7 +13937,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A63" s="205" t="s">
         <v>79</v>
       </c>
@@ -13990,7 +13990,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A64" s="205" t="s">
         <v>79</v>
       </c>
@@ -14043,7 +14043,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A65" s="205" t="s">
         <v>79</v>
       </c>
@@ -14096,7 +14096,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A66" s="205" t="s">
         <v>79</v>
       </c>
@@ -14149,7 +14149,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A67" s="205" t="s">
         <v>79</v>
       </c>
@@ -14202,7 +14202,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A68" s="205" t="s">
         <v>79</v>
       </c>
@@ -14257,7 +14257,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="69" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A69" s="205" t="s">
         <v>79</v>
       </c>
@@ -14312,7 +14312,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="70" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A70" s="205" t="s">
         <v>79</v>
       </c>
@@ -14365,7 +14365,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A71" s="205" t="s">
         <v>79</v>
       </c>
@@ -14440,7 +14440,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="72" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A72" s="205" t="s">
         <v>79</v>
       </c>
@@ -14499,7 +14499,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="73" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A73" s="205" t="s">
         <v>83</v>
       </c>
@@ -14554,7 +14554,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="74" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A74" s="205" t="s">
         <v>83</v>
       </c>
@@ -14617,7 +14617,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="75" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A75" s="205" t="s">
         <v>83</v>
       </c>
@@ -14706,7 +14706,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="76" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A76" s="205" t="s">
         <v>85</v>
       </c>
@@ -14813,7 +14813,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="77" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A77" s="205" t="s">
         <v>86</v>
       </c>
@@ -14876,7 +14876,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="78" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A78" s="205" t="s">
         <v>86</v>
       </c>
@@ -14981,7 +14981,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="79" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A79" s="205" t="s">
         <v>87</v>
       </c>
@@ -15084,7 +15084,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="80" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A80" s="205" t="s">
         <v>87</v>
       </c>
@@ -15145,7 +15145,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="81" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A81" s="205" t="s">
         <v>88</v>
       </c>
@@ -15232,7 +15232,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="82" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A82" s="212" t="s">
         <v>89</v>
       </c>
@@ -15287,7 +15287,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A83" s="212" t="s">
         <v>170</v>
       </c>
@@ -15348,7 +15348,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="84" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A84" s="215" t="s">
         <v>90</v>
       </c>
@@ -15518,17 +15518,17 @@
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="10.199999999999999" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4" style="29" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="34.44140625" style="29" customWidth="1"/>
-    <col min="3" max="3" width="42.33203125" style="26" customWidth="1"/>
-    <col min="4" max="4" width="22.6640625" style="26" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.6640625" style="28" customWidth="1"/>
+    <col min="2" max="2" width="34.42578125" style="29" customWidth="1"/>
+    <col min="3" max="3" width="42.28515625" style="26" customWidth="1"/>
+    <col min="4" max="4" width="22.7109375" style="26" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.7109375" style="28" customWidth="1"/>
     <col min="6" max="16384" width="9" style="24"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="35" t="s">
         <v>171</v>
       </c>
@@ -15537,14 +15537,14 @@
       <c r="D1" s="22"/>
       <c r="E1" s="23"/>
     </row>
-    <row r="2" spans="1:5" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="34"/>
       <c r="B2" s="24"/>
       <c r="C2" s="22"/>
       <c r="D2" s="22"/>
       <c r="E2" s="23"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="25"/>
       <c r="B3" s="25" t="s">
         <v>172</v>
@@ -15557,7 +15557,7 @@
       </c>
       <c r="E3" s="23"/>
     </row>
-    <row r="4" spans="1:5" s="26" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" s="26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="101" t="s">
         <v>8</v>
       </c>
@@ -15572,7 +15572,7 @@
       </c>
       <c r="E4" s="28"/>
     </row>
-    <row r="5" spans="1:5" s="26" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" s="26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="102"/>
       <c r="B5" s="100"/>
       <c r="C5" s="100" t="s">
@@ -15583,7 +15583,7 @@
       </c>
       <c r="E5" s="28"/>
     </row>
-    <row r="6" spans="1:5" s="26" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" s="26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="101" t="s">
         <v>22</v>
       </c>
@@ -15598,7 +15598,7 @@
       </c>
       <c r="E6" s="28"/>
     </row>
-    <row r="7" spans="1:5" s="26" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" s="26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="27"/>
       <c r="C7" s="26" t="s">
         <v>183</v>
@@ -15608,7 +15608,7 @@
       </c>
       <c r="E7" s="28"/>
     </row>
-    <row r="8" spans="1:5" s="26" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" s="26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="102"/>
       <c r="B8" s="100"/>
       <c r="C8" s="100" t="s">
@@ -15619,7 +15619,7 @@
       </c>
       <c r="E8" s="28"/>
     </row>
-    <row r="9" spans="1:5" s="26" customFormat="1" ht="14.7" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" s="26" customFormat="1" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="256" t="s">
         <v>28</v>
       </c>
@@ -15634,7 +15634,7 @@
       </c>
       <c r="E9" s="28"/>
     </row>
-    <row r="10" spans="1:5" s="26" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" s="26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="257"/>
       <c r="B10" s="255"/>
       <c r="C10" s="26" t="s">
@@ -15645,7 +15645,7 @@
       </c>
       <c r="E10" s="28"/>
     </row>
-    <row r="11" spans="1:5" s="26" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" s="26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="68" t="s">
         <v>34</v>
       </c>
@@ -15660,7 +15660,7 @@
       </c>
       <c r="E11" s="28"/>
     </row>
-    <row r="12" spans="1:5" s="26" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" s="26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="101" t="s">
         <v>38</v>
       </c>
@@ -15675,7 +15675,7 @@
       </c>
       <c r="E12" s="28"/>
     </row>
-    <row r="13" spans="1:5" s="26" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" s="26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="27"/>
       <c r="B13" s="252"/>
       <c r="C13" s="26" t="s">
@@ -15686,7 +15686,7 @@
       </c>
       <c r="E13" s="28"/>
     </row>
-    <row r="14" spans="1:5" s="26" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" s="26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="102"/>
       <c r="B14" s="253"/>
       <c r="C14" s="100" t="s">
@@ -15697,7 +15697,7 @@
       </c>
       <c r="E14" s="28"/>
     </row>
-    <row r="15" spans="1:5" s="26" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" s="26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="101" t="s">
         <v>43</v>
       </c>
@@ -15712,7 +15712,7 @@
       </c>
       <c r="E15" s="28"/>
     </row>
-    <row r="16" spans="1:5" s="26" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" s="26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="27"/>
       <c r="B16" s="97"/>
       <c r="C16" s="31" t="s">
@@ -15723,7 +15723,7 @@
       </c>
       <c r="E16" s="32"/>
     </row>
-    <row r="17" spans="1:5" s="26" customFormat="1" ht="14.7" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" s="26" customFormat="1" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="256" t="s">
         <v>48</v>
       </c>
@@ -15738,7 +15738,7 @@
       </c>
       <c r="E17" s="32"/>
     </row>
-    <row r="18" spans="1:5" s="26" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" s="26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="257"/>
       <c r="B18" s="255"/>
       <c r="C18" s="30" t="s">
@@ -15749,7 +15749,7 @@
       </c>
       <c r="E18" s="28"/>
     </row>
-    <row r="19" spans="1:5" s="26" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" s="26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="68" t="s">
         <v>53</v>
       </c>
@@ -15764,7 +15764,7 @@
       </c>
       <c r="E19" s="28"/>
     </row>
-    <row r="20" spans="1:5" s="26" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" s="26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="101" t="s">
         <v>58</v>
       </c>
@@ -15779,7 +15779,7 @@
       </c>
       <c r="E20" s="28"/>
     </row>
-    <row r="21" spans="1:5" s="26" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" s="26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="27"/>
       <c r="C21" s="26" t="s">
         <v>216</v>
@@ -15789,7 +15789,7 @@
       </c>
       <c r="E21" s="28"/>
     </row>
-    <row r="22" spans="1:5" s="26" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" s="26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="102"/>
       <c r="C22" s="26" t="s">
         <v>218</v>
@@ -15799,7 +15799,7 @@
       </c>
       <c r="E22" s="28"/>
     </row>
-    <row r="23" spans="1:5" s="26" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" s="26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="68" t="s">
         <v>63</v>
       </c>
@@ -15814,7 +15814,7 @@
       </c>
       <c r="E23" s="28"/>
     </row>
-    <row r="24" spans="1:5" s="26" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" s="26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="27" t="s">
         <v>65</v>
       </c>
@@ -15829,7 +15829,7 @@
       </c>
       <c r="E24" s="28"/>
     </row>
-    <row r="25" spans="1:5" s="26" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" s="26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="68" t="s">
         <v>68</v>
       </c>
@@ -15844,7 +15844,7 @@
       </c>
       <c r="E25" s="28"/>
     </row>
-    <row r="26" spans="1:5" s="26" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" s="26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="101" t="s">
         <v>73</v>
       </c>
@@ -15859,7 +15859,7 @@
       </c>
       <c r="E26" s="28"/>
     </row>
-    <row r="27" spans="1:5" s="26" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" s="26" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A27" s="102"/>
       <c r="B27" s="100"/>
       <c r="C27" s="98" t="s">
@@ -15870,7 +15870,7 @@
       </c>
       <c r="E27" s="32"/>
     </row>
-    <row r="28" spans="1:5" s="26" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" s="26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="101" t="s">
         <v>76</v>
       </c>
@@ -15885,7 +15885,7 @@
       </c>
       <c r="E28" s="32"/>
     </row>
-    <row r="29" spans="1:5" s="26" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" s="26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="102"/>
       <c r="B29" s="100"/>
       <c r="C29" s="100" t="s">
@@ -15896,7 +15896,7 @@
       </c>
       <c r="E29" s="28"/>
     </row>
-    <row r="30" spans="1:5" s="26" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" s="26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="101" t="s">
         <v>79</v>
       </c>
@@ -15911,7 +15911,7 @@
       </c>
       <c r="E30" s="28"/>
     </row>
-    <row r="31" spans="1:5" s="26" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" s="26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="27"/>
       <c r="B31" s="252"/>
       <c r="C31" s="26" t="s">
@@ -15922,7 +15922,7 @@
       </c>
       <c r="E31" s="28"/>
     </row>
-    <row r="32" spans="1:5" s="26" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" s="26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="27"/>
       <c r="B32" s="252"/>
       <c r="C32" s="26" t="s">
@@ -15933,7 +15933,7 @@
       </c>
       <c r="E32" s="28"/>
     </row>
-    <row r="33" spans="1:5" s="26" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" s="26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="102"/>
       <c r="B33" s="253"/>
       <c r="C33" s="100" t="s">
@@ -15944,7 +15944,7 @@
       </c>
       <c r="E33" s="28"/>
     </row>
-    <row r="34" spans="1:5" s="26" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" s="26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="68" t="s">
         <v>83</v>
       </c>
@@ -15959,7 +15959,7 @@
       </c>
       <c r="E34" s="28"/>
     </row>
-    <row r="35" spans="1:5" s="26" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" s="26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="68" t="s">
         <v>85</v>
       </c>
@@ -15974,7 +15974,7 @@
       </c>
       <c r="E35" s="28"/>
     </row>
-    <row r="36" spans="1:5" s="26" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" s="26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="27" t="s">
         <v>86</v>
       </c>
@@ -15989,7 +15989,7 @@
       </c>
       <c r="E36" s="28"/>
     </row>
-    <row r="37" spans="1:5" s="26" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" s="26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="249" t="s">
         <v>87</v>
       </c>
@@ -16004,7 +16004,7 @@
       </c>
       <c r="E37" s="28"/>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="250"/>
       <c r="B38" s="50" t="s">
         <v>249</v>
@@ -16016,7 +16016,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="39" spans="1:5" s="26" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5" s="26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="27"/>
       <c r="B39" s="27"/>
       <c r="E39" s="28"/>
@@ -16044,24 +16044,24 @@
       <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="11.25" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="11.25" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4" style="1" customWidth="1"/>
-    <col min="2" max="2" width="4.44140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.44140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.33203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.33203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.44140625" style="3" customWidth="1"/>
-    <col min="7" max="7" width="2.33203125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="4.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.33203125" style="3" customWidth="1"/>
-    <col min="11" max="11" width="8.33203125" style="3" customWidth="1"/>
-    <col min="12" max="12" width="11.44140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.42578125" style="3" customWidth="1"/>
+    <col min="7" max="7" width="2.28515625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="4.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.28515625" style="3" customWidth="1"/>
+    <col min="11" max="11" width="8.28515625" style="3" customWidth="1"/>
+    <col min="12" max="12" width="11.42578125" style="3" bestFit="1" customWidth="1"/>
     <col min="13" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" s="265" t="s">
         <v>251</v>
       </c>
@@ -16076,7 +16076,7 @@
       <c r="K1" s="265"/>
       <c r="L1" s="1"/>
     </row>
-    <row r="2" spans="2:12" ht="24" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:12" ht="36" x14ac:dyDescent="0.25">
       <c r="B2" s="62" t="s">
         <v>2</v>
       </c>
@@ -16098,7 +16098,7 @@
       <c r="K2" s="44"/>
       <c r="L2" s="44"/>
     </row>
-    <row r="3" spans="2:12" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:12" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="261" t="s">
         <v>8</v>
       </c>
@@ -16115,7 +16115,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="2:12" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:12" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="258"/>
       <c r="C4" s="107" t="s">
         <v>14</v>
@@ -16130,7 +16130,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="5" spans="2:12" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:12" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="258"/>
       <c r="C5" s="107" t="s">
         <v>257</v>
@@ -16145,7 +16145,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="2:12" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:12" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="262"/>
       <c r="C6" s="107" t="s">
         <v>259</v>
@@ -16160,7 +16160,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="2:12" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:12" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="108" t="s">
         <v>15</v>
       </c>
@@ -16177,7 +16177,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="2:12" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:12" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="258" t="s">
         <v>20</v>
       </c>
@@ -16194,7 +16194,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="2:12" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:12" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="258"/>
       <c r="C9" s="103" t="s">
         <v>67</v>
@@ -16209,7 +16209,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="2:12" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:12" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="266" t="s">
         <v>22</v>
       </c>
@@ -16226,7 +16226,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="2:12" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:12" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="267"/>
       <c r="C11" s="108" t="s">
         <v>26</v>
@@ -16241,7 +16241,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="2:12" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:12" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="267"/>
       <c r="C12" s="108" t="s">
         <v>27</v>
@@ -16256,7 +16256,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="2:12" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:12" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="268"/>
       <c r="C13" s="108" t="s">
         <v>267</v>
@@ -16271,7 +16271,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="2:12" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:12" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="261" t="s">
         <v>28</v>
       </c>
@@ -16288,7 +16288,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="2:12" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:12" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="258"/>
       <c r="C15" s="63" t="s">
         <v>29</v>
@@ -16303,7 +16303,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="16" spans="2:12" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:12" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="258"/>
       <c r="C16" s="63" t="s">
         <v>271</v>
@@ -16318,7 +16318,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="2:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="262"/>
       <c r="C17" s="64" t="s">
         <v>267</v>
@@ -16333,7 +16333,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="2:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="259" t="s">
         <v>32</v>
       </c>
@@ -16350,7 +16350,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="19" spans="2:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="260"/>
       <c r="C19" s="2" t="s">
         <v>67</v>
@@ -16365,7 +16365,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="2:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="258" t="s">
         <v>34</v>
       </c>
@@ -16382,7 +16382,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="21" spans="2:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="258"/>
       <c r="C21" s="63" t="s">
         <v>27</v>
@@ -16397,7 +16397,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="22" spans="2:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="258"/>
       <c r="C22" s="63" t="s">
         <v>277</v>
@@ -16412,7 +16412,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="2:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="258"/>
       <c r="C23" s="64" t="s">
         <v>279</v>
@@ -16427,7 +16427,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="2:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="266" t="s">
         <v>38</v>
       </c>
@@ -16444,7 +16444,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="25" spans="2:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="267"/>
       <c r="C25" s="66" t="s">
         <v>39</v>
@@ -16459,7 +16459,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="26" spans="2:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="267"/>
       <c r="C26" s="66" t="s">
         <v>40</v>
@@ -16474,7 +16474,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="27" spans="2:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="267"/>
       <c r="C27" s="66" t="s">
         <v>41</v>
@@ -16489,7 +16489,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="28" spans="2:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="267"/>
       <c r="C28" s="66" t="s">
         <v>285</v>
@@ -16504,7 +16504,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="29" spans="2:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="267"/>
       <c r="C29" s="66" t="s">
         <v>267</v>
@@ -16519,7 +16519,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="30" spans="2:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="268"/>
       <c r="C30" s="66" t="s">
         <v>279</v>
@@ -16534,7 +16534,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="2:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="258" t="s">
         <v>43</v>
       </c>
@@ -16551,7 +16551,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="32" spans="2:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="258"/>
       <c r="C32" s="107" t="s">
         <v>45</v>
@@ -16566,7 +16566,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="33" spans="2:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="258"/>
       <c r="C33" s="107" t="s">
         <v>40</v>
@@ -16581,7 +16581,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="34" spans="2:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="258"/>
       <c r="C34" s="103" t="s">
         <v>259</v>
@@ -16596,7 +16596,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="2:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="263" t="s">
         <v>48</v>
       </c>
@@ -16613,7 +16613,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="36" spans="2:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="263"/>
       <c r="C36" s="108" t="s">
         <v>49</v>
@@ -16628,7 +16628,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="37" spans="2:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B37" s="263"/>
       <c r="C37" s="108" t="s">
         <v>293</v>
@@ -16643,7 +16643,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="2:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B38" s="263"/>
       <c r="C38" s="108" t="s">
         <v>267</v>
@@ -16658,7 +16658,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="39" spans="2:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B39" s="262" t="s">
         <v>53</v>
       </c>
@@ -16675,7 +16675,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="40" spans="2:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B40" s="261"/>
       <c r="C40" s="103" t="s">
         <v>57</v>
@@ -16690,7 +16690,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="41" spans="2:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B41" s="266" t="s">
         <v>58</v>
       </c>
@@ -16707,7 +16707,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="42" spans="2:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B42" s="267"/>
       <c r="C42" s="108" t="s">
         <v>60</v>
@@ -16722,7 +16722,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="43" spans="2:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B43" s="267"/>
       <c r="C43" s="108" t="s">
         <v>62</v>
@@ -16737,7 +16737,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="44" spans="2:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B44" s="267"/>
       <c r="C44" s="108" t="s">
         <v>300</v>
@@ -16752,7 +16752,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="45" spans="2:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B45" s="268"/>
       <c r="C45" s="108" t="s">
         <v>267</v>
@@ -16767,7 +16767,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="46" spans="2:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B46" s="261" t="s">
         <v>170</v>
       </c>
@@ -16784,7 +16784,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="2:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B47" s="258"/>
       <c r="C47" s="67" t="s">
         <v>259</v>
@@ -16799,7 +16799,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="48" spans="2:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B48" s="258"/>
       <c r="C48" s="67" t="s">
         <v>267</v>
@@ -16814,7 +16814,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="49" spans="2:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B49" s="262"/>
       <c r="C49" s="67" t="s">
         <v>16</v>
@@ -16829,7 +16829,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="2:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B50" s="261" t="s">
         <v>63</v>
       </c>
@@ -16846,7 +16846,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="51" spans="2:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B51" s="258"/>
       <c r="C51" s="67" t="s">
         <v>59</v>
@@ -16861,7 +16861,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="2:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B52" s="262"/>
       <c r="C52" s="67" t="s">
         <v>267</v>
@@ -16876,7 +16876,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="53" spans="2:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B53" s="267" t="s">
         <v>154</v>
       </c>
@@ -16893,7 +16893,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="2:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B54" s="267"/>
       <c r="C54" s="108" t="s">
         <v>155</v>
@@ -16908,7 +16908,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="2:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B55" s="267"/>
       <c r="C55" s="105" t="s">
         <v>267</v>
@@ -16923,7 +16923,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="56" spans="2:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B56" s="261" t="s">
         <v>65</v>
       </c>
@@ -16940,7 +16940,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="57" spans="2:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B57" s="258"/>
       <c r="C57" s="107" t="s">
         <v>67</v>
@@ -16955,7 +16955,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="58" spans="2:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B58" s="262"/>
       <c r="C58" s="107" t="s">
         <v>259</v>
@@ -16970,7 +16970,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="59" spans="2:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B59" s="266" t="s">
         <v>68</v>
       </c>
@@ -16987,7 +16987,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="60" spans="2:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B60" s="267"/>
       <c r="C60" s="108" t="s">
         <v>27</v>
@@ -17002,7 +17002,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="61" spans="2:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B61" s="267"/>
       <c r="C61" s="108" t="s">
         <v>316</v>
@@ -17017,7 +17017,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="62" spans="2:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B62" s="267"/>
       <c r="C62" s="108" t="s">
         <v>318</v>
@@ -17032,7 +17032,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="63" spans="2:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B63" s="267"/>
       <c r="C63" s="108" t="s">
         <v>320</v>
@@ -17047,7 +17047,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="64" spans="2:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B64" s="267"/>
       <c r="C64" s="108" t="s">
         <v>322</v>
@@ -17062,7 +17062,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="65" spans="2:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B65" s="268"/>
       <c r="C65" s="108" t="s">
         <v>324</v>
@@ -17077,7 +17077,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="66" spans="2:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B66" s="261" t="s">
         <v>73</v>
       </c>
@@ -17094,7 +17094,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="67" spans="2:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B67" s="258"/>
       <c r="C67" s="107" t="s">
         <v>74</v>
@@ -17109,7 +17109,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="68" spans="2:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B68" s="258"/>
       <c r="C68" s="107" t="s">
         <v>327</v>
@@ -17124,7 +17124,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="69" spans="2:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B69" s="262"/>
       <c r="C69" s="103" t="s">
         <v>267</v>
@@ -17139,7 +17139,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="70" spans="2:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B70" s="266" t="s">
         <v>76</v>
       </c>
@@ -17156,7 +17156,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="71" spans="2:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B71" s="267"/>
       <c r="C71" s="108" t="s">
         <v>44</v>
@@ -17171,7 +17171,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="72" spans="2:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B72" s="267"/>
       <c r="C72" s="108" t="s">
         <v>332</v>
@@ -17186,7 +17186,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="73" spans="2:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B73" s="267"/>
       <c r="C73" s="108" t="s">
         <v>334</v>
@@ -17201,7 +17201,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="74" spans="2:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B74" s="268"/>
       <c r="C74" s="108" t="s">
         <v>82</v>
@@ -17216,7 +17216,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="75" spans="2:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B75" s="262" t="s">
         <v>79</v>
       </c>
@@ -17233,7 +17233,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="76" spans="2:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B76" s="264"/>
       <c r="C76" s="107" t="s">
         <v>26</v>
@@ -17248,7 +17248,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="77" spans="2:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B77" s="261"/>
       <c r="C77" s="103" t="s">
         <v>9</v>
@@ -17263,7 +17263,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="78" spans="2:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="2:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B78" s="261"/>
       <c r="C78" s="103" t="s">
         <v>82</v>
@@ -17278,7 +17278,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="79" spans="2:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B79" s="266" t="s">
         <v>83</v>
       </c>
@@ -17295,7 +17295,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="80" spans="2:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B80" s="267"/>
       <c r="C80" s="108" t="s">
         <v>84</v>
@@ -17310,7 +17310,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="81" spans="2:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="2:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B81" s="267"/>
       <c r="C81" s="108" t="s">
         <v>342</v>
@@ -17325,7 +17325,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="82" spans="2:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="2:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B82" s="268"/>
       <c r="C82" s="108" t="s">
         <v>267</v>
@@ -17340,7 +17340,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="83" spans="2:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="2:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B83" s="258" t="s">
         <v>85</v>
       </c>
@@ -17357,7 +17357,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="84" spans="2:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="2:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B84" s="258"/>
       <c r="C84" s="103" t="s">
         <v>345</v>
@@ -17372,7 +17372,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="85" spans="2:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="2:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B85" s="259" t="s">
         <v>89</v>
       </c>
@@ -17389,7 +17389,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="86" spans="2:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="2:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B86" s="260"/>
       <c r="C86" s="2" t="s">
         <v>67</v>
@@ -17404,7 +17404,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="2:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="2:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B87" s="258" t="s">
         <v>88</v>
       </c>
@@ -17421,7 +17421,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="88" spans="2:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="2:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B88" s="258"/>
       <c r="C88" s="107" t="s">
         <v>349</v>
@@ -17436,7 +17436,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="89" spans="2:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="2:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B89" s="258"/>
       <c r="C89" s="107" t="s">
         <v>259</v>
@@ -17451,7 +17451,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="90" spans="2:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="2:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B90" s="258"/>
       <c r="C90" s="103" t="s">
         <v>67</v>
@@ -17466,7 +17466,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="91" spans="2:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="2:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B91" s="108" t="s">
         <v>86</v>
       </c>
@@ -17483,7 +17483,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="92" spans="2:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="2:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B92" s="264" t="s">
         <v>87</v>
       </c>
@@ -17500,7 +17500,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="93" spans="2:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="2:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B93" s="264"/>
       <c r="C93" s="104" t="s">
         <v>59</v>
@@ -17557,41 +17557,41 @@
       <selection pane="bottomLeft" activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12" style="70" customWidth="1"/>
-    <col min="2" max="3" width="10.33203125" style="77" customWidth="1"/>
-    <col min="4" max="4" width="18.33203125" customWidth="1"/>
-    <col min="5" max="5" width="25.33203125" style="70" customWidth="1"/>
-    <col min="6" max="6" width="23.44140625" style="112" customWidth="1"/>
-    <col min="7" max="7" width="13.44140625" style="112" customWidth="1"/>
+    <col min="2" max="3" width="10.28515625" style="77" customWidth="1"/>
+    <col min="4" max="4" width="18.28515625" customWidth="1"/>
+    <col min="5" max="5" width="25.28515625" style="70" customWidth="1"/>
+    <col min="6" max="6" width="23.42578125" style="112" customWidth="1"/>
+    <col min="7" max="7" width="13.42578125" style="112" customWidth="1"/>
     <col min="8" max="8" width="28" style="112" customWidth="1"/>
-    <col min="9" max="9" width="14.44140625" style="112" customWidth="1"/>
-    <col min="10" max="10" width="34.6640625" style="113" customWidth="1"/>
-    <col min="11" max="12" width="18.44140625" style="112" customWidth="1"/>
-    <col min="13" max="13" width="34.6640625" style="112" customWidth="1"/>
-    <col min="14" max="14" width="18.44140625" style="112" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="5.44140625" style="112" customWidth="1"/>
-    <col min="16" max="16" width="5.33203125" style="112" customWidth="1"/>
-    <col min="17" max="18" width="6.44140625" style="112" customWidth="1"/>
-    <col min="19" max="19" width="4.44140625" style="112" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="6.44140625" style="112" customWidth="1"/>
-    <col min="21" max="21" width="5.6640625" style="112" customWidth="1"/>
-    <col min="22" max="22" width="4.44140625" style="112" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="4.44140625" style="112" customWidth="1"/>
-    <col min="24" max="24" width="4.44140625" style="112" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="3.44140625" style="112" customWidth="1"/>
-    <col min="26" max="26" width="7.44140625" style="112" customWidth="1"/>
-    <col min="27" max="27" width="3.44140625" style="112" customWidth="1"/>
-    <col min="28" max="28" width="4.44140625" style="112" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="3.6640625" style="112" customWidth="1"/>
-    <col min="30" max="30" width="6.44140625" style="112" customWidth="1"/>
-    <col min="31" max="31" width="4.44140625" style="112" customWidth="1"/>
-    <col min="32" max="32" width="13.6640625" style="112" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="112" customWidth="1"/>
+    <col min="10" max="10" width="34.7109375" style="113" customWidth="1"/>
+    <col min="11" max="12" width="18.42578125" style="112" customWidth="1"/>
+    <col min="13" max="13" width="34.7109375" style="112" customWidth="1"/>
+    <col min="14" max="14" width="18.42578125" style="112" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="5.42578125" style="112" customWidth="1"/>
+    <col min="16" max="16" width="5.28515625" style="112" customWidth="1"/>
+    <col min="17" max="18" width="6.42578125" style="112" customWidth="1"/>
+    <col min="19" max="19" width="4.42578125" style="112" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.42578125" style="112" customWidth="1"/>
+    <col min="21" max="21" width="5.7109375" style="112" customWidth="1"/>
+    <col min="22" max="22" width="4.42578125" style="112" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="4.42578125" style="112" customWidth="1"/>
+    <col min="24" max="24" width="4.42578125" style="112" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="3.42578125" style="112" customWidth="1"/>
+    <col min="26" max="26" width="7.42578125" style="112" customWidth="1"/>
+    <col min="27" max="27" width="3.42578125" style="112" customWidth="1"/>
+    <col min="28" max="28" width="4.42578125" style="112" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="3.7109375" style="112" customWidth="1"/>
+    <col min="30" max="30" width="6.42578125" style="112" customWidth="1"/>
+    <col min="31" max="31" width="4.42578125" style="112" customWidth="1"/>
+    <col min="32" max="32" width="13.7109375" style="112" customWidth="1"/>
     <col min="33" max="33" width="39" style="112" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" s="152" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:33" s="152" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="155"/>
       <c r="B1" s="156"/>
       <c r="C1" s="156"/>
@@ -17625,7 +17625,7 @@
       <c r="AF1" s="153"/>
       <c r="AG1" s="153"/>
     </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A2" s="149"/>
       <c r="B2" s="151"/>
       <c r="C2" s="151"/>
@@ -17668,7 +17668,7 @@
       <c r="AF2" s="145"/>
       <c r="AG2" s="144"/>
     </row>
-    <row r="3" spans="1:33" s="142" customFormat="1" ht="82.8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:33" s="142" customFormat="1" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A3" s="271" t="s">
         <v>359</v>
       </c>
@@ -17749,7 +17749,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="4" spans="1:33" s="136" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:33" s="136" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="272"/>
       <c r="B4" s="272"/>
       <c r="C4" s="274"/>
@@ -17820,7 +17820,7 @@
       </c>
       <c r="AG4" s="137"/>
     </row>
-    <row r="5" spans="1:33" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:33" ht="120" x14ac:dyDescent="0.25">
       <c r="A5" s="125" t="s">
         <v>38</v>
       </c>
@@ -17889,7 +17889,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="6" spans="1:33" s="77" customFormat="1" ht="82.8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:33" s="77" customFormat="1" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A6" s="125" t="s">
         <v>8</v>
       </c>
@@ -17952,7 +17952,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="7" spans="1:33" s="77" customFormat="1" ht="120" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:33" s="77" customFormat="1" ht="144" x14ac:dyDescent="0.25">
       <c r="A7" s="125" t="s">
         <v>83</v>
       </c>
@@ -18015,7 +18015,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="8" spans="1:33" s="83" customFormat="1" ht="94.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:33" s="83" customFormat="1" ht="94.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="125" t="s">
         <v>86</v>
       </c>
@@ -18087,7 +18087,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="9" spans="1:33" s="77" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:33" s="77" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="122" t="s">
         <v>58</v>
       </c>
@@ -18130,7 +18130,7 @@
       <c r="AF9" s="71"/>
       <c r="AG9" s="71"/>
     </row>
-    <row r="10" spans="1:33" s="79" customFormat="1" ht="72" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:33" s="79" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A10" s="134" t="s">
         <v>43</v>
       </c>
@@ -18187,7 +18187,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="11" spans="1:33" s="77" customFormat="1" ht="69" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:33" s="77" customFormat="1" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A11" s="122" t="s">
         <v>28</v>
       </c>
@@ -18238,7 +18238,7 @@
       <c r="AF11" s="71"/>
       <c r="AG11" s="71"/>
     </row>
-    <row r="12" spans="1:33" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:33" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="125" t="s">
         <v>53</v>
       </c>
@@ -18307,7 +18307,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="13" spans="1:33" s="83" customFormat="1" ht="55.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:33" s="83" customFormat="1" ht="55.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="125" t="s">
         <v>85</v>
       </c>
@@ -18366,7 +18366,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="14" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A14" s="122" t="s">
         <v>48</v>
       </c>
@@ -18411,7 +18411,7 @@
       <c r="AF14" s="120"/>
       <c r="AG14" s="120"/>
     </row>
-    <row r="15" spans="1:33" s="77" customFormat="1" ht="122.4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:33" s="77" customFormat="1" ht="135" x14ac:dyDescent="0.25">
       <c r="A15" s="125" t="s">
         <v>22</v>
       </c>
@@ -18472,7 +18472,7 @@
       </c>
       <c r="AG15" s="71"/>
     </row>
-    <row r="16" spans="1:33" s="83" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:33" s="83" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A16" s="126" t="s">
         <v>170</v>
       </c>
@@ -18519,7 +18519,7 @@
       <c r="AF16" s="85"/>
       <c r="AG16" s="85"/>
     </row>
-    <row r="17" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A17" s="122" t="s">
         <v>73</v>
       </c>
@@ -18560,7 +18560,7 @@
       <c r="AF17" s="120"/>
       <c r="AG17" s="120"/>
     </row>
-    <row r="18" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A18" s="122" t="s">
         <v>76</v>
       </c>
@@ -18601,7 +18601,7 @@
       <c r="AF18" s="120"/>
       <c r="AG18" s="120"/>
     </row>
-    <row r="19" spans="1:33" ht="55.2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:33" ht="51" x14ac:dyDescent="0.25">
       <c r="A19" s="125" t="s">
         <v>79</v>
       </c>
@@ -18664,7 +18664,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="20" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A20" s="122" t="s">
         <v>89</v>
       </c>
@@ -18701,7 +18701,7 @@
       <c r="AF20" s="120"/>
       <c r="AG20" s="120"/>
     </row>
-    <row r="21" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A21" s="121" t="s">
         <v>87</v>
       </c>
@@ -18744,7 +18744,7 @@
       <c r="AF21" s="120"/>
       <c r="AG21" s="120"/>
     </row>
-    <row r="22" spans="1:33" s="77" customFormat="1" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:33" s="77" customFormat="1" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A22" s="119" t="s">
         <v>63</v>
       </c>
@@ -18815,7 +18815,7 @@
       <c r="AF22" s="71"/>
       <c r="AG22" s="71"/>
     </row>
-    <row r="24" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A24" s="73" t="s">
         <v>449</v>
       </c>
@@ -18829,7 +18829,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="25" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A25" s="73" t="s">
         <v>452</v>
       </c>
@@ -18846,7 +18846,7 @@
       <c r="I25" s="279"/>
       <c r="J25" s="57"/>
     </row>
-    <row r="26" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:33" x14ac:dyDescent="0.25">
       <c r="D26" s="116" t="s">
         <v>453</v>
       </c>
@@ -18856,7 +18856,7 @@
       <c r="I26" s="279"/>
       <c r="J26" s="57"/>
     </row>
-    <row r="27" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:33" x14ac:dyDescent="0.25">
       <c r="D27" s="116" t="s">
         <v>456</v>
       </c>
@@ -18866,7 +18866,7 @@
       <c r="I27" s="279"/>
       <c r="J27" s="57"/>
     </row>
-    <row r="28" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:33" x14ac:dyDescent="0.25">
       <c r="D28" s="116" t="s">
         <v>456</v>
       </c>
@@ -18876,7 +18876,7 @@
       <c r="I28" s="279"/>
       <c r="J28" s="57"/>
     </row>
-    <row r="29" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:33" x14ac:dyDescent="0.25">
       <c r="D29" s="116" t="s">
         <v>456</v>
       </c>
@@ -18884,12 +18884,12 @@
         <v>459</v>
       </c>
     </row>
-    <row r="31" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B31" s="114" t="s">
         <v>460</v>
       </c>
     </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B34" s="77">
         <f>16*3/3</f>
         <v>16</v>
@@ -18936,42 +18936,42 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B817EAD4-F7C0-4A60-8ABA-A607F41556AF}">
   <dimension ref="A1:P40"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="D5" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.6640625" style="77"/>
-    <col min="2" max="2" width="12.109375" style="70" customWidth="1"/>
-    <col min="3" max="3" width="14.109375" style="70" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.88671875" style="70" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.88671875" style="70" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="24.109375" style="83" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.88671875" style="83" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.88671875" style="83" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="32.6640625" style="79" customWidth="1"/>
-    <col min="10" max="10" width="28.6640625" style="79" customWidth="1"/>
-    <col min="11" max="11" width="25.6640625" style="79" customWidth="1"/>
-    <col min="12" max="12" width="23.33203125" style="79" customWidth="1"/>
-    <col min="13" max="13" width="19.5546875" style="70" customWidth="1"/>
-    <col min="14" max="14" width="22.44140625" style="79" customWidth="1"/>
-    <col min="15" max="15" width="64.33203125" style="79" customWidth="1"/>
-    <col min="16" max="16" width="15.44140625" style="79" customWidth="1"/>
-    <col min="17" max="16384" width="8.6640625" style="77"/>
+    <col min="1" max="1" width="8.7109375" style="77"/>
+    <col min="2" max="2" width="12.140625" style="70" customWidth="1"/>
+    <col min="3" max="3" width="14.140625" style="70" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.85546875" style="70" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.85546875" style="70" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24.140625" style="83" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.85546875" style="83" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.85546875" style="83" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="32.7109375" style="79" customWidth="1"/>
+    <col min="10" max="10" width="28.7109375" style="79" customWidth="1"/>
+    <col min="11" max="11" width="25.7109375" style="79" customWidth="1"/>
+    <col min="12" max="12" width="23.28515625" style="79" customWidth="1"/>
+    <col min="13" max="13" width="19.5703125" style="70" customWidth="1"/>
+    <col min="14" max="14" width="22.42578125" style="79" customWidth="1"/>
+    <col min="15" max="15" width="64.28515625" style="79" customWidth="1"/>
+    <col min="16" max="16" width="15.42578125" style="79" customWidth="1"/>
+    <col min="17" max="16384" width="8.7109375" style="77"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="14.7" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F1" s="282" t="s">
         <v>461</v>
       </c>
       <c r="G1" s="283"/>
       <c r="H1" s="188"/>
     </row>
-    <row r="2" spans="1:16" s="70" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" s="70" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="80" t="s">
         <v>462</v>
       </c>
@@ -19019,7 +19019,7 @@
       </c>
       <c r="P2" s="83"/>
     </row>
-    <row r="3" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="74" t="s">
         <v>473</v>
       </c>
@@ -19060,7 +19060,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="4" spans="1:16" ht="81" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" ht="81" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="74" t="s">
         <v>473</v>
       </c>
@@ -19103,7 +19103,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="5" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="74" t="s">
         <v>488</v>
       </c>
@@ -19142,7 +19142,7 @@
       </c>
       <c r="O5" s="76"/>
     </row>
-    <row r="6" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="74" t="s">
         <v>490</v>
       </c>
@@ -19185,7 +19185,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="7" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="74" t="s">
         <v>488</v>
       </c>
@@ -19224,7 +19224,7 @@
       </c>
       <c r="O7" s="76"/>
     </row>
-    <row r="8" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="74" t="s">
         <v>488</v>
       </c>
@@ -19269,7 +19269,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="9" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="74" t="s">
         <v>473</v>
       </c>
@@ -19310,7 +19310,7 @@
       </c>
       <c r="O9" s="76"/>
     </row>
-    <row r="10" spans="1:16" ht="80.7" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:16" ht="80.650000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="74" t="s">
         <v>488</v>
       </c>
@@ -19353,7 +19353,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="11" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="74" t="s">
         <v>473</v>
       </c>
@@ -19392,7 +19392,7 @@
       </c>
       <c r="O11" s="76"/>
     </row>
-    <row r="12" spans="1:16" ht="48.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:16" ht="48.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="74" t="s">
         <v>480</v>
       </c>
@@ -19431,7 +19431,7 @@
       </c>
       <c r="O12" s="76"/>
     </row>
-    <row r="13" spans="1:16" ht="66" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:16" ht="66" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="74" t="s">
         <v>488</v>
       </c>
@@ -19464,7 +19464,7 @@
       </c>
       <c r="O13" s="76"/>
     </row>
-    <row r="14" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:16" ht="60" x14ac:dyDescent="0.25">
       <c r="A14" s="74" t="s">
         <v>490</v>
       </c>
@@ -19503,7 +19503,7 @@
       </c>
       <c r="O14" s="76"/>
     </row>
-    <row r="15" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="74" t="s">
         <v>480</v>
       </c>
@@ -19540,7 +19540,7 @@
       </c>
       <c r="O15" s="76"/>
     </row>
-    <row r="16" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:16" ht="45" x14ac:dyDescent="0.25">
       <c r="A16" s="74" t="s">
         <v>473</v>
       </c>
@@ -19577,7 +19577,7 @@
       </c>
       <c r="O16" s="76"/>
     </row>
-    <row r="17" spans="1:15" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:15" ht="45" x14ac:dyDescent="0.25">
       <c r="A17" s="74" t="s">
         <v>490</v>
       </c>
@@ -19618,7 +19618,7 @@
       </c>
       <c r="O17" s="76"/>
     </row>
-    <row r="18" spans="1:15" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:15" ht="75" x14ac:dyDescent="0.25">
       <c r="A18" s="74" t="s">
         <v>488</v>
       </c>
@@ -19659,7 +19659,7 @@
       </c>
       <c r="O18" s="76"/>
     </row>
-    <row r="19" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="74" t="s">
         <v>480</v>
       </c>
@@ -19696,7 +19696,7 @@
       </c>
       <c r="O19" s="76"/>
     </row>
-    <row r="20" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="74" t="s">
         <v>488</v>
       </c>
@@ -19729,7 +19729,7 @@
       </c>
       <c r="O20" s="76"/>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="74" t="s">
         <v>488</v>
       </c>
@@ -19756,7 +19756,7 @@
       <c r="N21" s="182"/>
       <c r="O21" s="76"/>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" s="74" t="s">
         <v>480</v>
       </c>
@@ -19791,7 +19791,7 @@
       </c>
       <c r="O22" s="76"/>
     </row>
-    <row r="23" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" s="74" t="s">
         <v>488</v>
       </c>
@@ -19826,7 +19826,7 @@
       </c>
       <c r="O23" s="76"/>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" s="74" t="s">
         <v>488</v>
       </c>
@@ -19857,7 +19857,7 @@
       </c>
       <c r="O24" s="76"/>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A25" s="74" t="s">
         <v>490</v>
       </c>
@@ -19896,7 +19896,7 @@
       </c>
       <c r="O25" s="76"/>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" s="74" t="s">
         <v>480</v>
       </c>
@@ -19925,7 +19925,7 @@
       </c>
       <c r="O26" s="76"/>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" s="74" t="s">
         <v>480</v>
       </c>
@@ -19956,7 +19956,7 @@
       </c>
       <c r="O27" s="76"/>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" s="74" t="s">
         <v>490</v>
       </c>
@@ -19989,7 +19989,7 @@
       <c r="N28" s="182"/>
       <c r="O28" s="76"/>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="H31" s="83" t="s">
         <v>722</v>
       </c>
@@ -19997,7 +19997,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="H32" s="83">
         <v>18</v>
       </c>
@@ -20012,42 +20012,42 @@
         <v>8</v>
       </c>
     </row>
-    <row r="33" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K33" s="79" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="34" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K34" s="79" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="35" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K35" s="79" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="36" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K36" s="79" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="37" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K37" s="79" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="38" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K38" s="79" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="39" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K39" s="79" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="40" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K40" s="79" t="s">
         <v>86</v>
       </c>
@@ -20116,31 +20116,31 @@
       <selection activeCell="H41" sqref="H41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.33203125" style="59" customWidth="1"/>
+    <col min="1" max="1" width="22.28515625" style="59" customWidth="1"/>
     <col min="2" max="2" width="13" style="59" customWidth="1"/>
     <col min="3" max="4" width="9" style="59"/>
     <col min="5" max="5" width="11" style="59" customWidth="1"/>
-    <col min="6" max="6" width="11.6640625" style="59" customWidth="1"/>
+    <col min="6" max="6" width="11.7109375" style="59" customWidth="1"/>
     <col min="7" max="8" width="10" style="59" customWidth="1"/>
-    <col min="9" max="9" width="14.5546875" style="59" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="25.5546875" style="59" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" style="59" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="25.5703125" style="59" hidden="1" customWidth="1"/>
     <col min="11" max="11" width="9" style="59"/>
-    <col min="12" max="12" width="23.6640625" style="59" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="23.7109375" style="59" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="39" style="59" customWidth="1"/>
     <col min="14" max="14" width="9" style="59"/>
     <col min="15" max="15" width="12" style="59" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="9" style="59"/>
-    <col min="17" max="17" width="20.6640625" style="59" customWidth="1"/>
-    <col min="18" max="18" width="8.44140625" style="59" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="11.6640625" style="59" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="20.7109375" style="59" customWidth="1"/>
+    <col min="18" max="18" width="8.42578125" style="59" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="11.7109375" style="59" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="9" style="59"/>
-    <col min="21" max="22" width="11.44140625" style="59" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="11.42578125" style="59" bestFit="1" customWidth="1"/>
     <col min="23" max="16384" width="9" style="59"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="284" t="s">
         <v>552</v>
       </c>
@@ -20154,7 +20154,7 @@
       <c r="I1" s="284"/>
       <c r="J1" s="284"/>
     </row>
-    <row r="2" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="60"/>
       <c r="B2" s="285" t="s">
         <v>553</v>
@@ -20172,7 +20172,7 @@
       <c r="I2" s="285"/>
       <c r="J2" s="285"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A3" s="109" t="s">
         <v>556</v>
       </c>
@@ -20196,7 +20196,7 @@
       <c r="I3" s="286"/>
       <c r="J3" s="286"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="109" t="s">
         <v>561</v>
       </c>
@@ -20218,7 +20218,7 @@
       <c r="I4" s="286"/>
       <c r="J4" s="286"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="284" t="s">
         <v>562</v>
       </c>
@@ -20232,7 +20232,7 @@
       <c r="I6" s="284"/>
       <c r="J6" s="284"/>
     </row>
-    <row r="7" spans="1:12" ht="41.7" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" ht="41.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="110"/>
       <c r="B7" s="110" t="s">
         <v>563</v>
@@ -20260,7 +20260,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="286" t="s">
         <v>571</v>
       </c>
@@ -20299,7 +20299,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="27.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" ht="27.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="286"/>
       <c r="B9" s="286"/>
       <c r="C9" s="286"/>
@@ -20328,7 +20328,7 @@
         <v>32400</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="286" t="s">
         <v>573</v>
       </c>
@@ -20364,7 +20364,7 @@
         <v>3240</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="286"/>
       <c r="B11" s="286"/>
       <c r="C11" s="286"/>
@@ -20393,7 +20393,7 @@
         <v>6480</v>
       </c>
     </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A18" s="284" t="s">
         <v>562</v>
       </c>
@@ -20407,7 +20407,7 @@
       <c r="I18" s="284"/>
       <c r="J18" s="284"/>
     </row>
-    <row r="19" spans="1:22" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:22" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="110"/>
       <c r="B19" s="110" t="s">
         <v>563</v>
@@ -20435,7 +20435,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="20" spans="1:22" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:22" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A20" s="109" t="s">
         <v>571</v>
       </c>
@@ -20469,7 +20469,7 @@
         <v>21600</v>
       </c>
     </row>
-    <row r="24" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="287" t="s">
         <v>575</v>
       </c>
@@ -20483,7 +20483,7 @@
       <c r="I24" s="289"/>
       <c r="J24" s="179"/>
     </row>
-    <row r="25" spans="1:22" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:22" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="110"/>
       <c r="B25" s="110" t="s">
         <v>563</v>
@@ -20511,7 +20511,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A26" s="109" t="s">
         <v>576</v>
       </c>
@@ -20545,7 +20545,7 @@
         <v>178200</v>
       </c>
     </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:22" x14ac:dyDescent="0.25">
       <c r="L27" s="178" t="s">
         <v>577</v>
       </c>
@@ -20565,7 +20565,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A28" s="284" t="s">
         <v>575</v>
       </c>
@@ -20606,7 +20606,7 @@
         <v>1.6666666666666667</v>
       </c>
     </row>
-    <row r="29" spans="1:22" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:22" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="110"/>
       <c r="B29" s="110" t="s">
         <v>563</v>
@@ -20665,7 +20665,7 @@
         <v>3.3333333333333335</v>
       </c>
     </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A30" s="109" t="s">
         <v>576</v>
       </c>
@@ -20734,7 +20734,7 @@
         <v>82.5</v>
       </c>
     </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:22" x14ac:dyDescent="0.25">
       <c r="L31" s="59" t="s">
         <v>402</v>
       </c>
@@ -20767,7 +20767,7 @@
         <v>10.3125</v>
       </c>
     </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:22" x14ac:dyDescent="0.25">
       <c r="L32" s="59" t="s">
         <v>437</v>
       </c>
@@ -20796,7 +20796,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="33" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:20" x14ac:dyDescent="0.25">
       <c r="L33" s="59" t="s">
         <v>411</v>
       </c>
@@ -20825,7 +20825,7 @@
         <v>2.1666666666666665</v>
       </c>
     </row>
-    <row r="34" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:20" x14ac:dyDescent="0.25">
       <c r="M34" s="59">
         <f>SUM(M28:M33)</f>
         <v>8</v>
@@ -20852,7 +20852,7 @@
         <v>3.1666666666666665</v>
       </c>
     </row>
-    <row r="35" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:20" x14ac:dyDescent="0.25">
       <c r="O35" s="177" t="s">
         <v>590</v>
       </c>
@@ -20871,7 +20871,7 @@
         <v>0.83333333333333337</v>
       </c>
     </row>
-    <row r="36" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:20" x14ac:dyDescent="0.25">
       <c r="M36" s="59">
         <f>B26/M34</f>
         <v>24.75</v>
@@ -20894,7 +20894,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:20" x14ac:dyDescent="0.25">
       <c r="M37" s="59">
         <f>M36/4</f>
         <v>6.1875</v>
@@ -20922,7 +20922,7 @@
         <v>1.8125</v>
       </c>
     </row>
-    <row r="38" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B38" s="59" t="s">
         <v>592</v>
       </c>
@@ -20942,7 +20942,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="39" spans="1:20" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:20" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A39" s="59" t="s">
         <v>582</v>
       </c>
@@ -20969,7 +20969,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="40" spans="1:20" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:20" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A40" s="59" t="s">
         <v>385</v>
       </c>
@@ -20996,7 +20996,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="41" spans="1:20" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:20" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A41" s="59" t="s">
         <v>395</v>
       </c>
@@ -21023,7 +21023,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="42" spans="1:20" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:20" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A42" s="59" t="s">
         <v>402</v>
       </c>
@@ -21061,7 +21061,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="43" spans="1:20" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:20" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A43" s="59" t="s">
         <v>437</v>
       </c>
@@ -21101,7 +21101,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:20" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:20" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A44" s="59" t="s">
         <v>411</v>
       </c>
@@ -21143,7 +21143,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="45" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:20" x14ac:dyDescent="0.25">
       <c r="L45" s="109" t="s">
         <v>609</v>
       </c>
@@ -21157,7 +21157,7 @@
       <c r="R45" s="286"/>
       <c r="S45" s="286"/>
     </row>
-    <row r="46" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:20" x14ac:dyDescent="0.25">
       <c r="L46" s="109" t="s">
         <v>611</v>
       </c>
@@ -21175,7 +21175,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:20" x14ac:dyDescent="0.25">
       <c r="L47" s="109" t="s">
         <v>613</v>
       </c>
@@ -21192,7 +21192,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:20" x14ac:dyDescent="0.25">
       <c r="Q48" s="109"/>
       <c r="R48" s="109" t="s">
         <v>411</v>
@@ -21201,7 +21201,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:19" x14ac:dyDescent="0.25">
       <c r="L49" s="290" t="s">
         <v>615</v>
       </c>
@@ -21216,7 +21216,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="50" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A50" s="290" t="s">
         <v>618</v>
       </c>
@@ -21234,7 +21234,7 @@
       <c r="R50" s="286"/>
       <c r="S50" s="286"/>
     </row>
-    <row r="51" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A51" s="180" t="s">
         <v>622</v>
       </c>
@@ -21251,7 +21251,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="52" spans="1:19" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:19" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="109" t="s">
         <v>582</v>
       </c>
@@ -21268,7 +21268,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="53" spans="1:19" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:19" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A53" s="109" t="s">
         <v>385</v>
       </c>
@@ -21285,7 +21285,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="54" spans="1:19" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:19" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A54" s="109" t="s">
         <v>395</v>
       </c>
@@ -21304,7 +21304,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="55" spans="1:19" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A55" s="109" t="s">
         <v>402</v>
       </c>
@@ -21321,7 +21321,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="56" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A56" s="109" t="s">
         <v>437</v>
       </c>
@@ -21334,7 +21334,7 @@
       <c r="D56" s="185"/>
       <c r="E56" s="185"/>
     </row>
-    <row r="57" spans="1:19" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:19" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A57" s="109" t="s">
         <v>411</v>
       </c>
@@ -21347,7 +21347,7 @@
       <c r="D57" s="185"/>
       <c r="E57" s="185"/>
     </row>
-    <row r="58" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A58" s="284" t="s">
         <v>90</v>
       </c>
@@ -21405,15 +21405,15 @@
       <selection activeCell="F54" sqref="F54"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="5.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.5546875" customWidth="1"/>
-    <col min="5" max="21" width="11.88671875" customWidth="1"/>
+    <col min="2" max="2" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.5703125" customWidth="1"/>
+    <col min="5" max="21" width="11.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="189" t="s">
         <v>8</v>
       </c>
@@ -21439,7 +21439,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="191" t="s">
         <v>15</v>
       </c>
@@ -21465,7 +21465,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="191" t="s">
         <v>28</v>
       </c>
@@ -21491,7 +21491,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="191" t="s">
         <v>32</v>
       </c>
@@ -21517,7 +21517,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="191" t="s">
         <v>34</v>
       </c>
@@ -21543,7 +21543,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="191" t="s">
         <v>38</v>
       </c>
@@ -21569,7 +21569,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="191" t="s">
         <v>43</v>
       </c>
@@ -21595,7 +21595,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="9" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="191" t="s">
         <v>48</v>
       </c>
@@ -21621,7 +21621,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="10" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="191" t="s">
         <v>53</v>
       </c>
@@ -21647,7 +21647,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="11" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B11" s="191" t="s">
         <v>58</v>
       </c>
@@ -21673,7 +21673,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="12" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B12" s="191" t="s">
         <v>170</v>
       </c>
@@ -21699,7 +21699,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="13" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B13" s="191" t="s">
         <v>63</v>
       </c>
@@ -21725,7 +21725,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="14" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B14" s="191" t="s">
         <v>65</v>
       </c>
@@ -21751,7 +21751,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="15" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B15" s="191" t="s">
         <v>68</v>
       </c>
@@ -21777,7 +21777,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="16" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B16" s="191" t="s">
         <v>76</v>
       </c>
@@ -21800,7 +21800,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="17" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B17" s="191" t="s">
         <v>83</v>
       </c>
@@ -21826,7 +21826,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="18" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B18" s="191" t="s">
         <v>79</v>
       </c>
@@ -21852,7 +21852,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="19" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B19" s="191" t="s">
         <v>85</v>
       </c>
@@ -21878,7 +21878,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="20" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B20" s="191" t="s">
         <v>89</v>
       </c>
@@ -21904,7 +21904,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="21" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B21" s="191" t="s">
         <v>86</v>
       </c>
@@ -21930,7 +21930,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="22" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B22" s="191" t="s">
         <v>87</v>
       </c>
@@ -21956,7 +21956,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="23" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="I23" s="234" t="s">
         <v>85</v>
       </c>
@@ -21970,7 +21970,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="24" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="I24" s="234" t="s">
         <v>89</v>
       </c>
@@ -21984,7 +21984,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="25" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="I25" s="234" t="s">
         <v>88</v>
       </c>
@@ -21998,7 +21998,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="26" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="I26" s="234" t="s">
         <v>86</v>
       </c>
@@ -22012,7 +22012,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="27" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="I27" s="234" t="s">
         <v>87</v>
       </c>
@@ -22026,7 +22026,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="41" spans="3:16" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="41" spans="3:16" ht="45" x14ac:dyDescent="0.25">
       <c r="C41" s="120" t="s">
         <v>669</v>
       </c>
@@ -22037,7 +22037,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="42" spans="3:16" x14ac:dyDescent="0.3">
+    <row r="42" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C42" s="293" t="s">
         <v>672</v>
       </c>
@@ -22046,35 +22046,35 @@
       </c>
       <c r="E42" s="120"/>
     </row>
-    <row r="43" spans="3:16" x14ac:dyDescent="0.3">
+    <row r="43" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C43" s="293"/>
       <c r="D43" s="238" t="s">
         <v>32</v>
       </c>
       <c r="E43" s="120"/>
     </row>
-    <row r="44" spans="3:16" x14ac:dyDescent="0.3">
+    <row r="44" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C44" s="293"/>
       <c r="D44" s="238" t="s">
         <v>43</v>
       </c>
       <c r="E44" s="120"/>
     </row>
-    <row r="45" spans="3:16" x14ac:dyDescent="0.3">
+    <row r="45" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C45" s="293"/>
       <c r="D45" s="238" t="s">
         <v>63</v>
       </c>
       <c r="E45" s="120"/>
     </row>
-    <row r="46" spans="3:16" x14ac:dyDescent="0.3">
+    <row r="46" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C46" s="293"/>
       <c r="D46" s="238" t="s">
         <v>65</v>
       </c>
       <c r="E46" s="120"/>
     </row>
-    <row r="47" spans="3:16" x14ac:dyDescent="0.3">
+    <row r="47" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C47" s="293"/>
       <c r="D47" s="238" t="s">
         <v>76</v>
@@ -22093,7 +22093,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="48" spans="3:16" x14ac:dyDescent="0.3">
+    <row r="48" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C48" s="293"/>
       <c r="D48" s="238" t="s">
         <v>85</v>
@@ -22106,7 +22106,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C49" s="293"/>
       <c r="D49" s="238" t="s">
         <v>86</v>
@@ -22122,7 +22122,7 @@
         <v>675</v>
       </c>
     </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C50" s="293" t="s">
         <v>676</v>
       </c>
@@ -22137,7 +22137,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C51" s="293"/>
       <c r="D51" s="238" t="s">
         <v>28</v>
@@ -22153,7 +22153,7 @@
         <v>675</v>
       </c>
     </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="52" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C52" s="293"/>
       <c r="D52" s="238" t="s">
         <v>38</v>
@@ -22166,7 +22166,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C53" s="293"/>
       <c r="D53" s="238" t="s">
         <v>53</v>
@@ -22179,7 +22179,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="54" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C54" s="293"/>
       <c r="D54" s="238" t="s">
         <v>58</v>
@@ -22192,7 +22192,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C55" s="293"/>
       <c r="D55" s="238" t="s">
         <v>73</v>
@@ -22205,7 +22205,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="56" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C56" s="293"/>
       <c r="D56" s="238" t="s">
         <v>79</v>
@@ -22218,7 +22218,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="57" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C57" s="293"/>
       <c r="D57" s="238" t="s">
         <v>88</v>
@@ -22231,7 +22231,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C58" s="293" t="s">
         <v>677</v>
       </c>
@@ -22246,7 +22246,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C59" s="293"/>
       <c r="D59" s="237" t="s">
         <v>22</v>
@@ -22261,7 +22261,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C60" s="293"/>
       <c r="D60" s="238" t="s">
         <v>34</v>
@@ -22274,56 +22274,56 @@
         <v>87</v>
       </c>
     </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C61" s="293"/>
       <c r="D61" s="238" t="s">
         <v>48</v>
       </c>
       <c r="E61" s="120"/>
     </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C62" s="293"/>
       <c r="D62" s="238" t="s">
         <v>170</v>
       </c>
       <c r="E62" s="120"/>
     </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C63" s="293"/>
       <c r="D63" s="238" t="s">
         <v>68</v>
       </c>
       <c r="E63" s="120"/>
     </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="64" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C64" s="293"/>
       <c r="D64" s="238" t="s">
         <v>83</v>
       </c>
       <c r="E64" s="120"/>
     </row>
-    <row r="65" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="65" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C65" s="293"/>
       <c r="D65" s="238" t="s">
         <v>89</v>
       </c>
       <c r="E65" s="120"/>
     </row>
-    <row r="66" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="66" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C66" s="293"/>
       <c r="D66" s="238" t="s">
         <v>154</v>
       </c>
       <c r="E66" s="120"/>
     </row>
-    <row r="67" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="67" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C67" s="293"/>
       <c r="D67" s="238" t="s">
         <v>87</v>
       </c>
       <c r="E67" s="120"/>
     </row>
-    <row r="75" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="75" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C75" s="223" t="s">
         <v>669</v>
       </c>
@@ -22379,7 +22379,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="76" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="76" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C76" s="223" t="s">
         <v>674</v>
       </c>
@@ -22435,7 +22435,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="77" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C77" s="223" t="s">
         <v>695</v>
       </c>
@@ -22475,7 +22475,7 @@
       <c r="S77" s="223"/>
       <c r="T77" s="223"/>
     </row>
-    <row r="78" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="78" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C78" s="223" t="s">
         <v>696</v>
       </c>
@@ -22501,7 +22501,7 @@
       <c r="S78" s="223"/>
       <c r="T78" s="223"/>
     </row>
-    <row r="79" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="79" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C79" s="223" t="s">
         <v>674</v>
       </c>
@@ -22555,7 +22555,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="80" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C80" s="223" t="s">
         <v>695</v>
       </c>
@@ -22609,7 +22609,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="81" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C81" s="223" t="s">
         <v>696</v>
       </c>
@@ -22655,7 +22655,7 @@
       <c r="S81" s="223"/>
       <c r="T81" s="223"/>
     </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="82" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C82" s="223" t="s">
         <v>674</v>
       </c>
@@ -22693,7 +22693,7 @@
       </c>
       <c r="T82" s="224"/>
     </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="83" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C83" s="223" t="s">
         <v>695</v>
       </c>
@@ -22749,7 +22749,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="84" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C84" s="223" t="s">
         <v>696</v>
       </c>
@@ -22805,7 +22805,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="85" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C85" s="223" t="s">
         <v>674</v>
       </c>
@@ -22861,7 +22861,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="86" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C86" s="223" t="s">
         <v>695</v>
       </c>
@@ -22917,7 +22917,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="87" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C87" s="223" t="s">
         <v>695</v>
       </c>
@@ -22965,7 +22965,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="88" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C88" s="223" t="s">
         <v>674</v>
       </c>
@@ -22997,7 +22997,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="89" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C89" s="223" t="s">
         <v>696</v>
       </c>
@@ -23049,7 +23049,7 @@
       <c r="S89" s="224"/>
       <c r="T89" s="224"/>
     </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="90" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C90" s="223" t="s">
         <v>696</v>
       </c>
@@ -23091,7 +23091,7 @@
       <c r="S90" s="224"/>
       <c r="T90" s="224"/>
     </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="91" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C91" s="223" t="s">
         <v>674</v>
       </c>
@@ -23131,7 +23131,7 @@
       </c>
       <c r="T91" s="224"/>
     </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="92" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C92" s="223" t="s">
         <v>695</v>
       </c>
@@ -23165,7 +23165,7 @@
       <c r="S92" s="224"/>
       <c r="T92" s="224"/>
     </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="93" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C93" s="223" t="s">
         <v>696</v>
       </c>
@@ -23217,7 +23217,7 @@
       <c r="S93" s="224"/>
       <c r="T93" s="224"/>
     </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="94" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C94" s="223" t="s">
         <v>674</v>
       </c>
@@ -23273,7 +23273,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="95" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C95" s="223" t="s">
         <v>695</v>
       </c>
@@ -23327,7 +23327,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="96" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C96" s="223" t="s">
         <v>696</v>
       </c>
@@ -23383,7 +23383,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="97" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C97" s="223" t="s">
         <v>674</v>
       </c>
@@ -23409,7 +23409,7 @@
       <c r="S97" s="223"/>
       <c r="T97" s="223"/>
     </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="98" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C98" s="223" t="s">
         <v>695</v>
       </c>
@@ -23453,7 +23453,7 @@
       <c r="S98" s="223"/>
       <c r="T98" s="223"/>
     </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="99" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C99" s="223" t="s">
         <v>696</v>
       </c>
@@ -23509,7 +23509,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="100" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C100" s="223" t="s">
         <v>674</v>
       </c>
@@ -23587,14 +23587,14 @@
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="10" customWidth="1"/>
-    <col min="4" max="4" width="27.6640625" customWidth="1"/>
-    <col min="5" max="5" width="47.33203125" style="172" customWidth="1"/>
+    <col min="4" max="4" width="27.7109375" customWidth="1"/>
+    <col min="5" max="5" width="47.28515625" style="172" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="112" customFormat="1" ht="24" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" s="112" customFormat="1" ht="24" x14ac:dyDescent="0.25">
       <c r="A1" s="173" t="s">
         <v>2</v>
       </c>
@@ -23611,7 +23611,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="48" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" ht="48" x14ac:dyDescent="0.25">
       <c r="A2" s="96" t="s">
         <v>15</v>
       </c>
@@ -23628,7 +23628,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="84" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" ht="96" x14ac:dyDescent="0.25">
       <c r="A3" s="96" t="s">
         <v>20</v>
       </c>
@@ -23645,7 +23645,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="24" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" ht="24" x14ac:dyDescent="0.25">
       <c r="A4" s="96" t="s">
         <v>32</v>
       </c>
@@ -23662,7 +23662,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="96" t="s">
         <v>73</v>
       </c>
@@ -23679,7 +23679,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="24" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A6" s="169" t="s">
         <v>65</v>
       </c>
@@ -23696,7 +23696,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="294" t="s">
         <v>713</v>
       </c>
@@ -23705,7 +23705,7 @@
       <c r="D9" s="294"/>
       <c r="E9" s="294"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="183" t="s">
         <v>462</v>
       </c>
@@ -23722,7 +23722,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="71" t="s">
         <v>480</v>
       </c>
@@ -23735,7 +23735,7 @@
       <c r="D11" s="76"/>
       <c r="E11" s="76"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="71" t="s">
         <v>480</v>
       </c>
@@ -23748,7 +23748,7 @@
       <c r="D12" s="76"/>
       <c r="E12" s="76"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="71" t="s">
         <v>480</v>
       </c>
@@ -23761,7 +23761,7 @@
       <c r="D13" s="76"/>
       <c r="E13" s="76"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="71" t="s">
         <v>480</v>
       </c>
@@ -23774,7 +23774,7 @@
       <c r="D14" s="76"/>
       <c r="E14" s="76"/>
     </row>
-    <row r="15" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="71" t="s">
         <v>488</v>
       </c>
@@ -23789,7 +23789,7 @@
       </c>
       <c r="E15" s="76"/>
     </row>
-    <row r="16" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="71" t="s">
         <v>488</v>
       </c>
@@ -23806,7 +23806,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="71" t="s">
         <v>488</v>
       </c>
@@ -23819,7 +23819,7 @@
       <c r="D17" s="76"/>
       <c r="E17" s="76"/>
     </row>
-    <row r="18" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="71" t="s">
         <v>488</v>
       </c>
